--- a/src/test/testdata/Book2.xlsx
+++ b/src/test/testdata/Book2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amira\eclipse-workspace\Automater\src\test\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automater\src\test\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,7 +346,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -361,10 +357,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>1021132355</v>
+        <v>1127465090</v>
       </c>
       <c r="B1" s="2">
-        <v>1021132355</v>
+        <v>1127465090</v>
       </c>
     </row>
   </sheetData>
